--- a/public/DataMatkul/test.xlsx
+++ b/public/DataMatkul/test.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daffa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B0CF60-6DBE-406F-A28F-2891641D0036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7E9E7B-8C19-4080-81FA-A85C8F40093B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5EB99ED4-0D4A-4EB9-A757-4FFE7D535C97}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5EB99ED4-0D4A-4EB9-A757-4FFE7D535C97}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cpl-template1" sheetId="1" r:id="rId1"/>
+    <sheet name="cpl-template" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="198">
   <si>
     <t>no</t>
   </si>
@@ -73,6 +74,564 @@
   </si>
   <si>
     <t>cpl9</t>
+  </si>
+  <si>
+    <t>AULYA THAREEQ PRAVANTAWIDYA</t>
+  </si>
+  <si>
+    <t>PUTRI ALMAAS AULIASARI</t>
+  </si>
+  <si>
+    <t>IDA BAGUS PUTU PUTRA MANUABA</t>
+  </si>
+  <si>
+    <t>BAININGTYAS KALIFA NURHARYANTI</t>
+  </si>
+  <si>
+    <t>NABILA HANA SAPHIRA</t>
+  </si>
+  <si>
+    <t>NOVITA AULIYA</t>
+  </si>
+  <si>
+    <t>LINTANG FADHILLAH HAIKAL</t>
+  </si>
+  <si>
+    <t>SALSHA NABILLA PUTRI</t>
+  </si>
+  <si>
+    <t>PEGGY RAIHANNISA ZAKIYYAHANNAS</t>
+  </si>
+  <si>
+    <t>FARIZ WILDAN MEIAWAN</t>
+  </si>
+  <si>
+    <t>RIFKY HERNANDA</t>
+  </si>
+  <si>
+    <t>DONNY RIDWAN SETIAWAN</t>
+  </si>
+  <si>
+    <t>FELISIANA ARDELIA AZZAHRA</t>
+  </si>
+  <si>
+    <t>NAUFAL DAFFA' RISWANDA</t>
+  </si>
+  <si>
+    <t>YOGA SADHEWO SHALAHUDIN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ARIF RAZMI</t>
+  </si>
+  <si>
+    <t>JOANNE EVA DONNA</t>
+  </si>
+  <si>
+    <t>ZEFANYA LOIS LIGAT SUGIARTO</t>
+  </si>
+  <si>
+    <t>ATHALLAH DWI RAHADIANTO</t>
+  </si>
+  <si>
+    <t>MUHAMMAD IRHAMSYAH ARRAHIM</t>
+  </si>
+  <si>
+    <t>NAURA SHARFINA AZARINE</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FITRA ARISAPUTRA</t>
+  </si>
+  <si>
+    <t>RAJA TOBIAS DANTE</t>
+  </si>
+  <si>
+    <t>KENZA VIANDA DWIPUTRA</t>
+  </si>
+  <si>
+    <t>DANIEL ANDHIKA YUDISTYA</t>
+  </si>
+  <si>
+    <t>NURMURSID IQBAL HERTANTO</t>
+  </si>
+  <si>
+    <t>MAULANA YUSUF SURADIN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD DHIVA PRADIGTA</t>
+  </si>
+  <si>
+    <t>ALYA ZAHRA FATIKHA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NOOR IBRAHIM</t>
+  </si>
+  <si>
+    <t>HAMMAM FAIZ</t>
+  </si>
+  <si>
+    <t>ANUGRAH</t>
+  </si>
+  <si>
+    <t>ATARIKA TRIMELFI NOFISA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FARIS RIZQAN</t>
+  </si>
+  <si>
+    <t>Taufiqurrohman</t>
+  </si>
+  <si>
+    <t>SITI SHOLEKAH</t>
+  </si>
+  <si>
+    <t>FORESTO ANDREAN YUDHA</t>
+  </si>
+  <si>
+    <t>M. YOGA AINUR ROFIQ</t>
+  </si>
+  <si>
+    <t>RAMA ARYASUTA WEIHAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAHREZA ISNANTO</t>
+  </si>
+  <si>
+    <t>RIZAL AGATHA ERDIN AGESYAH</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HANNAN</t>
+  </si>
+  <si>
+    <t>ADIVIA KHUSNUL AISHA</t>
+  </si>
+  <si>
+    <t>ZAKIA MARRIT</t>
+  </si>
+  <si>
+    <t>FADILLAH HAMDI WANADI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RAIHAN MAULANA</t>
+  </si>
+  <si>
+    <t>QORRY AMARA MARDHATILLAH</t>
+  </si>
+  <si>
+    <t>AFIFA HUMAIRA</t>
+  </si>
+  <si>
+    <t>ELANG PRASAKTI GHANI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD GHULAM ABDUL NASHR UMAR DHANU PUTRA</t>
+  </si>
+  <si>
+    <t>RINA SANTIKA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HAFIZH ZIKRY</t>
+  </si>
+  <si>
+    <t>ABDULLAH FAQIH AL MUBARAK</t>
+  </si>
+  <si>
+    <t>MIRZA ALI ABHIPRAYA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SULTHON AULIYA</t>
+  </si>
+  <si>
+    <t>MUHAMAD ANGGITO HERLAMBANG HADISUWARNO</t>
+  </si>
+  <si>
+    <t>KANINA NADIRA ANDRIYANI</t>
+  </si>
+  <si>
+    <t>ILHAM PRATAMA</t>
+  </si>
+  <si>
+    <t>DIDI SUHARDI</t>
+  </si>
+  <si>
+    <t>FITRIAWAN ARYA NUGRAHA</t>
+  </si>
+  <si>
+    <t>DIMSA MUTIARA FIRSTAYODI</t>
+  </si>
+  <si>
+    <t>SUGIYATMI</t>
+  </si>
+  <si>
+    <t>KHANUUN MAULIDA PUSPITA HASYIM</t>
+  </si>
+  <si>
+    <t>DANIEL RITZ</t>
+  </si>
+  <si>
+    <t>REFANDA SURYA SAPUTRA</t>
+  </si>
+  <si>
+    <t>DIDAN HASAN MURTAQI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD DZAKY NAUFAL</t>
+  </si>
+  <si>
+    <t>Mohammad Rifqi Satriamas</t>
+  </si>
+  <si>
+    <t>AFIF SYARIFUDDIN YAHYA</t>
+  </si>
+  <si>
+    <t>RIZAL FIRDAUS</t>
+  </si>
+  <si>
+    <t>DEBORA OKTARIA LUBIS</t>
+  </si>
+  <si>
+    <t>KIRANI JULI ANDINI</t>
+  </si>
+  <si>
+    <t>R. ADI WIJAYA SWASTAMA</t>
+  </si>
+  <si>
+    <t>PRAMUDITA PRABASWARA SUWARDANA SUDRAJAT</t>
+  </si>
+  <si>
+    <t>MUHANIF RAFI AHMADI</t>
+  </si>
+  <si>
+    <t>NUR AYUK FEBREYANTI</t>
+  </si>
+  <si>
+    <t>HIBATULLAH DYFA GRAHATAMA</t>
+  </si>
+  <si>
+    <t>IVAN DANISWORO ABADI</t>
+  </si>
+  <si>
+    <t>DIMAS KENANG SURYA ARDANI</t>
+  </si>
+  <si>
+    <t>RAHMAT MUKHALIN</t>
+  </si>
+  <si>
+    <t>DIMAS SATRIA PERMANA</t>
+  </si>
+  <si>
+    <t>SETYAWAN ADHI NUGROHO</t>
+  </si>
+  <si>
+    <t>KRISHNA FALMAASA MUDYA</t>
+  </si>
+  <si>
+    <t>SAMUEL MIDUK ANUGRAH PASARIBU</t>
+  </si>
+  <si>
+    <t>ERINA DEVIANTI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RIDWAN</t>
+  </si>
+  <si>
+    <t>JUANDA RITONGA</t>
+  </si>
+  <si>
+    <t>DANIEL ALVARO SORMIN</t>
+  </si>
+  <si>
+    <t>RAUNG KAWIJAYAN</t>
+  </si>
+  <si>
+    <t>AUDI ALVAN FIKRI</t>
+  </si>
+  <si>
+    <t>FADEL RIZKY NURFITANTO</t>
+  </si>
+  <si>
+    <t>SACHIKO FITRIA RAMANDANTI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FACHRURAZI</t>
+  </si>
+  <si>
+    <t>ANANDA MUHAMMAD ZAHIR</t>
+  </si>
+  <si>
+    <t>AGGY ACHYA FADHLIKA</t>
+  </si>
+  <si>
+    <t>SEPTIAN AGUNG PERMANA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ROFI'UL ANAM</t>
+  </si>
+  <si>
+    <t>MARUL ANGGARA</t>
+  </si>
+  <si>
+    <t>MUHAMAD RAFDAN MAULANA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ROSHIYFUL KAAMIL (&lt; 75%)</t>
+  </si>
+  <si>
+    <t>FATIH RIZQY HAKIM</t>
+  </si>
+  <si>
+    <t>DANIEL SUBERDO MATANARI</t>
+  </si>
+  <si>
+    <t>WHISNU TAUHID ILHAM SAPUTRA</t>
+  </si>
+  <si>
+    <t>DAUD DIMAS PRASETYO</t>
+  </si>
+  <si>
+    <t>JORDANO IQBAL DARMAWAN</t>
+  </si>
+  <si>
+    <t>GERHAD RUBEN RUSSEL ANGGORO</t>
+  </si>
+  <si>
+    <t>SYAHIRA ISNAENI DEWI</t>
+  </si>
+  <si>
+    <t>ANDRA PUTRA NURRAFI</t>
+  </si>
+  <si>
+    <t>FITRIYA NUR SAIDAH</t>
+  </si>
+  <si>
+    <t>NANDA IQBAL HANAFI</t>
+  </si>
+  <si>
+    <t>FAIRUZSYAH NAUFAL FIKRI</t>
+  </si>
+  <si>
+    <t>ABRAM DARMAPUTRA</t>
+  </si>
+  <si>
+    <t>M. IRMAWAN</t>
+  </si>
+  <si>
+    <t>ROSYAD SHIDQI DIKPIMMAS</t>
+  </si>
+  <si>
+    <t>Dimas Seto Rizky Goenardi</t>
+  </si>
+  <si>
+    <t>EGA FAWWAZ KHANSA</t>
+  </si>
+  <si>
+    <t>MUHAMAD YAHYA OKTARIANSYAH</t>
+  </si>
+  <si>
+    <t>MUKHAMAD FERRY HENDRAWAN</t>
+  </si>
+  <si>
+    <t>FAIZAL TRI ARDHANI WIJAYA</t>
+  </si>
+  <si>
+    <t>SALAHUDIN AL AYUBI</t>
+  </si>
+  <si>
+    <t>ALYA ADELIA MUMTAZ</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NURIL HUDA MAULANI (&lt; 75%)</t>
+  </si>
+  <si>
+    <t>KHASANDRA NUR PRISTIWANING RAHAYU</t>
+  </si>
+  <si>
+    <t>DHEA RAHMA PUTRI</t>
+  </si>
+  <si>
+    <t>AHMAD ALDANI HERLANGGA</t>
+  </si>
+  <si>
+    <t>REINDROW OWEN SIMANGUNSONG</t>
+  </si>
+  <si>
+    <t>Anadda Ferrell Ramadhan</t>
+  </si>
+  <si>
+    <t>A.MIFTACHUL HIDAYAT</t>
+  </si>
+  <si>
+    <t>NABILA RIZQI MAHARDIKA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RAFI ANWAR</t>
+  </si>
+  <si>
+    <t>FRANSISKA TEBAY</t>
+  </si>
+  <si>
+    <t>LISA RUTH YARANGGA</t>
+  </si>
+  <si>
+    <t>Maulana Ahmad Rodhi Alfian</t>
+  </si>
+  <si>
+    <t>FANGKI IGO PRAMANA</t>
+  </si>
+  <si>
+    <t>ANAS NOOR HAKIM</t>
+  </si>
+  <si>
+    <t>DAFFA ABHYASA SANTOSO</t>
+  </si>
+  <si>
+    <t>CAHYO ADE PRASETYO</t>
+  </si>
+  <si>
+    <t>ANUGERAH NUR RACHMAT</t>
+  </si>
+  <si>
+    <t>MUHAMMAD BAIHAQI ASSHAUMI MUNTAQO</t>
+  </si>
+  <si>
+    <t>FAIZAL LUTFI YOGA TRIADI</t>
+  </si>
+  <si>
+    <t>EZRA LAZUARDY WIJAYA</t>
+  </si>
+  <si>
+    <t>David Eddy Putra Pratama (&lt; 75%)</t>
+  </si>
+  <si>
+    <t>FAJAR YUMNA ADANI</t>
+  </si>
+  <si>
+    <t>ARDHIKA AZHAR PRATAMA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FARIZ SIDIK</t>
+  </si>
+  <si>
+    <t>AHMAD RADITYA ALRAZI WIBOWO</t>
+  </si>
+  <si>
+    <t>DAFFA MAULANA WISESA</t>
+  </si>
+  <si>
+    <t>ENGELBERT JUBILE SATRIO LUKITO</t>
+  </si>
+  <si>
+    <t>FAUZAN NURRAMADHAN</t>
+  </si>
+  <si>
+    <t>BAGAS SATRIO UNGGUL YUDHO</t>
+  </si>
+  <si>
+    <t>AFRIZAL EKA PURNAMA</t>
+  </si>
+  <si>
+    <t>OSVELINA MARGARETHA SIREGAR</t>
+  </si>
+  <si>
+    <t>Helmi Bagus Wijanarko</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SALMAN ALFARISI (&lt; 75%)</t>
+  </si>
+  <si>
+    <t>FEBIAN HAYDAR PRATAMA</t>
+  </si>
+  <si>
+    <t>ANGGI NIKMATUN ZAHRA</t>
+  </si>
+  <si>
+    <t>INDRIA WULANDARI SIHOTANG</t>
+  </si>
+  <si>
+    <t>IMAM NURALIM</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RAFI ANGGARAKSA</t>
+  </si>
+  <si>
+    <t>MICHELIA VADILLA VERDIANTO</t>
+  </si>
+  <si>
+    <t>GALIH BAYU PRAKOSO</t>
+  </si>
+  <si>
+    <t>ADID HARDIANSYAH</t>
+  </si>
+  <si>
+    <t>ALDO SERENA SAFIOLA</t>
+  </si>
+  <si>
+    <t>WISNU ADI SETIANTO</t>
+  </si>
+  <si>
+    <t>HAFIZH ANJAR SAPUTRA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FADHIL SULTHAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD JUHA ARSYADANI ARIF</t>
+  </si>
+  <si>
+    <t>DIEFA EDRA RIVANDI</t>
+  </si>
+  <si>
+    <t>RISKA MARIETA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RISKI NUR FARIS</t>
+  </si>
+  <si>
+    <t>ROSELIN YOSEFA</t>
+  </si>
+  <si>
+    <t>RENALDY ANDARA PERMATA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FARHAN ASHARI</t>
+  </si>
+  <si>
+    <t>ROY PUTRA RIONA NADHIIER</t>
+  </si>
+  <si>
+    <t>ZULZUPI PAJARUDDIN</t>
+  </si>
+  <si>
+    <t>ESTU NUR AINI (&lt; 75%)</t>
+  </si>
+  <si>
+    <t>FAUZANI GALIHJATI PRABOWO</t>
+  </si>
+  <si>
+    <t>ARIEL JONES DEKOCK</t>
+  </si>
+  <si>
+    <t>HAFIDZ PUTRA RACHMAN</t>
+  </si>
+  <si>
+    <t>MAULANA YUSUF ARRASYID</t>
+  </si>
+  <si>
+    <t>KAKUNG BANGKIT PAKARTI</t>
+  </si>
+  <si>
+    <t>AHMAD ASRORUDDIN</t>
+  </si>
+  <si>
+    <t>SHIBA NURUL AISHA</t>
+  </si>
+  <si>
+    <t>RAFIF SADID HAMDANI</t>
+  </si>
+  <si>
+    <t>ARIZ MUHAMMAD FAJAR</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RIZAL QOWI AL-AZIS</t>
   </si>
 </sst>
 </file>
@@ -3068,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBBED76-6E58-44EE-A7E2-113F649C07D1}">
   <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" activeCellId="1" sqref="M16 N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="A1:L187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10934,7 +11493,7146 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C136439-9FF8-412B-86F2-E89F5BD58592}">
+  <dimension ref="A1:L187"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>21120120140099</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21120120140100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>21120120140108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>21120120140111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>21120120140112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>21120120140114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>21120120140121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>21120120140173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>21120119130111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>21120120130074</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>21120120130082</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>21120120130083</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>21120120130106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>21120120130107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>21120120130113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>21120120130116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>21120120130118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>21120120130120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>21120120130122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>21120120140157</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21120120140159</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>21120120140160</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>21120120140041</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>21120120140046</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>21120120140048</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>21120120140049</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>21120120140051</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>21120120140054</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>21120120140056</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>21120120140064</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>21120120140076</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>21120120140077</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>21120120140094</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>21120119100083</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>21120119120005</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>21120120120003</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>21120120120004</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>21120120120005</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>21120120120007</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>21120120120009</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>21120120120010</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>21120120120017</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>21120120120019</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>21120120120024</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>21120120120025</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>21120120120027</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>21120120140145</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>21120119140141</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>21120118140043</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>21120120120029</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>21120120120030</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>21120120120034</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>21120120130042</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>21120120130045</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>21120120130047</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>21120120130050</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>21120120130052</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>21120120130060</v>
+      </c>
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>21120120130063</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>21120120140153</v>
+      </c>
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>21120120120012</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>21120120120014</v>
+      </c>
+      <c r="C63" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>21120120120015</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>21120120120021</v>
+      </c>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>21120120120022</v>
+      </c>
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>21120120140141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>21120118140071</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>21120119130115</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>21120116120018</v>
+      </c>
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>21120120120031</v>
+      </c>
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>21120120120032</v>
+      </c>
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>21120120120033</v>
+      </c>
+      <c r="C73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>21120120120035</v>
+      </c>
+      <c r="C74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>21120120130043</v>
+      </c>
+      <c r="C75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>4</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>21120120130044</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>21120120130053</v>
+      </c>
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>21120120130058</v>
+      </c>
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>21120120130059</v>
+      </c>
+      <c r="C79" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>21120120130061</v>
+      </c>
+      <c r="C80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>4</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>21120120130062</v>
+      </c>
+      <c r="C81" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>21120120130066</v>
+      </c>
+      <c r="C82" t="s">
+        <v>92</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>4</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>21120120130068</v>
+      </c>
+      <c r="C83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>21120120130070</v>
+      </c>
+      <c r="C84" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>21120120130071</v>
+      </c>
+      <c r="C85" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>21120120140148</v>
+      </c>
+      <c r="C86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>21120120140149</v>
+      </c>
+      <c r="C87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>21120120140150</v>
+      </c>
+      <c r="C88" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>21120120140154</v>
+      </c>
+      <c r="C89" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>21120120140155</v>
+      </c>
+      <c r="C90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>21120120140095</v>
+      </c>
+      <c r="C91" t="s">
+        <v>101</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>21120120140098</v>
+      </c>
+      <c r="C92" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>21120120140103</v>
+      </c>
+      <c r="C93" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>21120120140104</v>
+      </c>
+      <c r="C94" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>21120120140115</v>
+      </c>
+      <c r="C95" t="s">
+        <v>105</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>21120120140119</v>
+      </c>
+      <c r="C96" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>21120120140129</v>
+      </c>
+      <c r="C97" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>21120120140135</v>
+      </c>
+      <c r="C98" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>21120120140138</v>
+      </c>
+      <c r="C99" t="s">
+        <v>109</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>21120120140139</v>
+      </c>
+      <c r="C100" t="s">
+        <v>110</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>4</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>21120120140140</v>
+      </c>
+      <c r="C101" t="s">
+        <v>111</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>21120120140170</v>
+      </c>
+      <c r="C102" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1">
+        <v>21120120140175</v>
+      </c>
+      <c r="C103" t="s">
+        <v>113</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>21120120140176</v>
+      </c>
+      <c r="C104" t="s">
+        <v>114</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>4</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>21120116130076</v>
+      </c>
+      <c r="C105" t="s">
+        <v>115</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1">
+        <v>21120120130073</v>
+      </c>
+      <c r="C106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>4</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1">
+        <v>21120120130075</v>
+      </c>
+      <c r="C107" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1">
+        <v>21120120130084</v>
+      </c>
+      <c r="C108" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1">
+        <v>21120120130090</v>
+      </c>
+      <c r="C109" t="s">
+        <v>119</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1">
+        <v>21120120130091</v>
+      </c>
+      <c r="C110" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1">
+        <v>21120120130109</v>
+      </c>
+      <c r="C111" t="s">
+        <v>121</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1">
+        <v>21120120130110</v>
+      </c>
+      <c r="C112" t="s">
+        <v>122</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>4</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1">
+        <v>21120120130124</v>
+      </c>
+      <c r="C113" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1">
+        <v>21120120130125</v>
+      </c>
+      <c r="C114" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1">
+        <v>21120120140161</v>
+      </c>
+      <c r="C115" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1">
+        <v>21120119130051</v>
+      </c>
+      <c r="C116" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1">
+        <v>21120120130133</v>
+      </c>
+      <c r="C117" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1">
+        <v>21120120140037</v>
+      </c>
+      <c r="C118" t="s">
+        <v>128</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>4</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1">
+        <v>21120120140039</v>
+      </c>
+      <c r="C119" t="s">
+        <v>129</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1">
+        <v>21120120140069</v>
+      </c>
+      <c r="C120" t="s">
+        <v>130</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1">
+        <v>21120120140078</v>
+      </c>
+      <c r="C121" t="s">
+        <v>131</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>4</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>21120120140079</v>
+      </c>
+      <c r="C122" t="s">
+        <v>132</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>4</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1">
+        <v>21120120140086</v>
+      </c>
+      <c r="C123" t="s">
+        <v>133</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>21120120140089</v>
+      </c>
+      <c r="C124" t="s">
+        <v>134</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>4</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1">
+        <v>21120120140164</v>
+      </c>
+      <c r="C125" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>4</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1">
+        <v>21120120140168</v>
+      </c>
+      <c r="C126" t="s">
+        <v>136</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1">
+        <v>21120120140169</v>
+      </c>
+      <c r="C127" t="s">
+        <v>137</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>4</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1">
+        <v>21120119130035</v>
+      </c>
+      <c r="C128" t="s">
+        <v>138</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>3</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1">
+        <v>21120120120002</v>
+      </c>
+      <c r="C129" t="s">
+        <v>139</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>4</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1">
+        <v>21120120120011</v>
+      </c>
+      <c r="C130" t="s">
+        <v>140</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>4</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1">
+        <v>21120120140174</v>
+      </c>
+      <c r="C131" t="s">
+        <v>141</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>3</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>21120117100037</v>
+      </c>
+      <c r="C132" t="s">
+        <v>142</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <v>21120117100038</v>
+      </c>
+      <c r="C133" t="s">
+        <v>143</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>21120119130110</v>
+      </c>
+      <c r="C134" t="s">
+        <v>144</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1">
+        <v>21120120130088</v>
+      </c>
+      <c r="C135" t="s">
+        <v>145</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>4</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>21120120130092</v>
+      </c>
+      <c r="C136" t="s">
+        <v>146</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>4</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1">
+        <v>21120120130093</v>
+      </c>
+      <c r="C137" t="s">
+        <v>147</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>4</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>21120120130123</v>
+      </c>
+      <c r="C138" t="s">
+        <v>148</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>4</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1">
+        <v>21120120130126</v>
+      </c>
+      <c r="C139" t="s">
+        <v>149</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>3</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <v>21120120140156</v>
+      </c>
+      <c r="C140" t="s">
+        <v>150</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>4</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
+        <v>21120120140158</v>
+      </c>
+      <c r="C141" t="s">
+        <v>151</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>4</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>21120120140162</v>
+      </c>
+      <c r="C142" t="s">
+        <v>152</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1">
+        <v>21120119130074</v>
+      </c>
+      <c r="C143" t="s">
+        <v>153</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>21120120130128</v>
+      </c>
+      <c r="C144" t="s">
+        <v>154</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>4</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1">
+        <v>21120120140036</v>
+      </c>
+      <c r="C145" t="s">
+        <v>155</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>4</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1">
+        <v>21120120140038</v>
+      </c>
+      <c r="C146" t="s">
+        <v>156</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>4</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1">
+        <v>21120120140040</v>
+      </c>
+      <c r="C147" t="s">
+        <v>157</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>4</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1">
+        <v>21120120140057</v>
+      </c>
+      <c r="C148" t="s">
+        <v>158</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>4</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1">
+        <v>21120120140080</v>
+      </c>
+      <c r="C149" t="s">
+        <v>159</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1">
+        <v>21120120140081</v>
+      </c>
+      <c r="C150" t="s">
+        <v>160</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1">
+        <v>21120120140163</v>
+      </c>
+      <c r="C151" t="s">
+        <v>161</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1">
+        <v>21120120140165</v>
+      </c>
+      <c r="C152" t="s">
+        <v>162</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1">
+        <v>21120120140167</v>
+      </c>
+      <c r="C153" t="s">
+        <v>163</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1">
+        <v>21120119120009</v>
+      </c>
+      <c r="C154" t="s">
+        <v>164</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1">
+        <v>21120120120001</v>
+      </c>
+      <c r="C155" t="s">
+        <v>165</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1">
+        <v>21120120120006</v>
+      </c>
+      <c r="C156" t="s">
+        <v>166</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1">
+        <v>21120120120008</v>
+      </c>
+      <c r="C157" t="s">
+        <v>167</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1">
+        <v>21120120120013</v>
+      </c>
+      <c r="C158" t="s">
+        <v>168</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>4</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1">
+        <v>21120120120016</v>
+      </c>
+      <c r="C159" t="s">
+        <v>169</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1">
+        <v>21120120120018</v>
+      </c>
+      <c r="C160" t="s">
+        <v>170</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>4</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1">
+        <v>21120120120020</v>
+      </c>
+      <c r="C161" t="s">
+        <v>171</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>3</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1">
+        <v>21120120120023</v>
+      </c>
+      <c r="C162" t="s">
+        <v>172</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>4</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1">
+        <v>21120120120026</v>
+      </c>
+      <c r="C163" t="s">
+        <v>173</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>4</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1">
+        <v>21120120120028</v>
+      </c>
+      <c r="C164" t="s">
+        <v>174</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1">
+        <v>21120120140142</v>
+      </c>
+      <c r="C165" t="s">
+        <v>175</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>4</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1">
+        <v>21120120140143</v>
+      </c>
+      <c r="C166" t="s">
+        <v>176</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>4</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1">
+        <v>21120120140144</v>
+      </c>
+      <c r="C167" t="s">
+        <v>177</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>4</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1">
+        <v>21120120140146</v>
+      </c>
+      <c r="C168" t="s">
+        <v>178</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>4</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1">
+        <v>21120120140147</v>
+      </c>
+      <c r="C169" t="s">
+        <v>179</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>2</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1">
+        <v>21120118130065</v>
+      </c>
+      <c r="C170" t="s">
+        <v>180</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1">
+        <v>21120118140061</v>
+      </c>
+      <c r="C171" t="s">
+        <v>181</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1">
+        <v>21120119140142</v>
+      </c>
+      <c r="C172" t="s">
+        <v>182</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>2</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1">
+        <v>21120120130055</v>
+      </c>
+      <c r="C173" t="s">
+        <v>183</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>4</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1">
+        <v>21120120130072</v>
+      </c>
+      <c r="C174" t="s">
+        <v>184</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>2</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1">
+        <v>21120120140151</v>
+      </c>
+      <c r="C175" t="s">
+        <v>185</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="1">
+        <v>21120120140152</v>
+      </c>
+      <c r="C176" t="s">
+        <v>186</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="1">
+        <v>21120118130096</v>
+      </c>
+      <c r="C177" t="s">
+        <v>187</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="1">
+        <v>21120118140100</v>
+      </c>
+      <c r="C178" t="s">
+        <v>188</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="1">
+        <v>21120119140148</v>
+      </c>
+      <c r="C179" t="s">
+        <v>189</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="1">
+        <v>21120120140096</v>
+      </c>
+      <c r="C180" t="s">
+        <v>190</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="1">
+        <v>21120120140102</v>
+      </c>
+      <c r="C181" t="s">
+        <v>191</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>4</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1">
+        <v>21120120140130</v>
+      </c>
+      <c r="C182" t="s">
+        <v>192</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>3</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="1">
+        <v>21120120140132</v>
+      </c>
+      <c r="C183" t="s">
+        <v>193</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>4</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="1">
+        <v>21120120140136</v>
+      </c>
+      <c r="C184" t="s">
+        <v>194</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>3</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="1">
+        <v>21120120140137</v>
+      </c>
+      <c r="C185" t="s">
+        <v>195</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>4</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="1">
+        <v>21120120140171</v>
+      </c>
+      <c r="C186" t="s">
+        <v>196</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>3</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="1">
+        <v>21120120140172</v>
+      </c>
+      <c r="C187" t="s">
+        <v>197</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>4</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokumen" ma:contentTypeID="0x010100A9B153765AE3554A97A6B9D2F8AC3ADA" ma:contentTypeVersion="10" ma:contentTypeDescription="Buat sebuah dokumen baru." ma:contentTypeScope="" ma:versionID="abcbb3763a81187be4ff05d1c2f8768c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aea25c7d-311b-4cd3-b496-d1e70638f95e" xmlns:ns4="190f5044-4c52-43a8-a96c-13c1d3e45f14" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53508aac993cd361493749f9034f02e8" ns3:_="" ns4:_="">
     <xsd:import namespace="aea25c7d-311b-4cd3-b496-d1e70638f95e"/>
@@ -11135,22 +18833,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA6CE9C2-15EC-4250-903F-9D4206D9994B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="aea25c7d-311b-4cd3-b496-d1e70638f95e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="190f5044-4c52-43a8-a96c-13c1d3e45f14"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B025926-5F92-4B69-914C-D1AF91468AB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33786F2C-DC8C-4200-873B-8604153C3DE3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11167,29 +18875,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B025926-5F92-4B69-914C-D1AF91468AB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA6CE9C2-15EC-4250-903F-9D4206D9994B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="aea25c7d-311b-4cd3-b496-d1e70638f95e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="190f5044-4c52-43a8-a96c-13c1d3e45f14"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>